--- a/Bricadeiras/LojaComputadores.xlsx
+++ b/Bricadeiras/LojaComputadores.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R$8.500</t>
+          <t>R$10.550</t>
         </is>
       </c>
     </row>
